--- a/SCBAA/2018/CAR.xlsx
+++ b/SCBAA/2018/CAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6B71F-1FAC-4561-9860-CF29071EB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A9E2E-DD6F-4FB8-93D6-52D970F93880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="915" windowWidth="14970" windowHeight="12495" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
   </bookViews>
   <sheets>
     <sheet name="Baguio" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -844,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AB5C64-2B1F-4743-8076-0B0C35676C5C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +977,6 @@
         <v>7</v>
       </c>
       <c r="E11" s="36">
-        <f>144301823.63+70384781.73</f>
         <v>214686605.36000001</v>
       </c>
     </row>
@@ -993,7 +999,6 @@
         <v>9</v>
       </c>
       <c r="E13" s="36">
-        <f>20550324.42+5238828.74+29238077+2159024</f>
         <v>57186254.160000004</v>
       </c>
     </row>
@@ -1005,7 +1010,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11">
-        <f>SUM(E11:E13)</f>
         <v>583661072.98000002</v>
       </c>
     </row>
@@ -1037,7 +1041,6 @@
         <v>13</v>
       </c>
       <c r="E17" s="36">
-        <f>226367621.23+136073.82</f>
         <v>226503695.04999998</v>
       </c>
     </row>
@@ -1060,7 +1063,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>328462818.52999997</v>
       </c>
     </row>
@@ -1251,7 +1253,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1873417579.28</v>
       </c>
     </row>
@@ -1308,7 +1309,6 @@
         <v>38</v>
       </c>
       <c r="E43" s="36">
-        <f>246545553.96+22903</f>
         <v>246568456.96000001</v>
       </c>
     </row>
@@ -1340,7 +1340,6 @@
         <v>37</v>
       </c>
       <c r="E46" s="36">
-        <f>430000+34448490.97</f>
         <v>34878490.969999999</v>
       </c>
     </row>
@@ -1352,7 +1351,6 @@
         <v>38</v>
       </c>
       <c r="E47" s="36">
-        <f>6240440.7+33651938.13</f>
         <v>39892378.830000006</v>
       </c>
     </row>
@@ -1364,7 +1362,6 @@
         <v>39</v>
       </c>
       <c r="E48" s="36">
-        <f>2549836.07+627328</f>
         <v>3177164.07</v>
       </c>
     </row>
@@ -1832,7 +1829,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="28">
-        <f>SUM(E41:E92)</f>
         <v>1035405642.02</v>
       </c>
     </row>
@@ -1999,7 +1995,6 @@
         <v>39</v>
       </c>
       <c r="E110" s="36">
-        <f>1270950.03+88139900.12+548690+25304747.72+6273230.66+725492</f>
         <v>122263010.53</v>
       </c>
     </row>
@@ -2008,7 +2003,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>125067622.14</v>
       </c>
     </row>
@@ -2020,7 +2014,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="35">
-        <f>SUM(E93,E111)</f>
         <v>1160473264.1600001</v>
       </c>
     </row>
@@ -2041,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE7E9C-EF31-46E4-8D92-B970FAB7D1C8}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2193,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>24066804.449999999</v>
       </c>
     </row>
@@ -2221,7 +2213,6 @@
         <v>12</v>
       </c>
       <c r="E16" s="10">
-        <f xml:space="preserve"> (8706330.33+2551036.26+3234315)</f>
         <v>14491681.59</v>
       </c>
       <c r="G16" s="10"/>
@@ -2256,7 +2247,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>34309885.299999997</v>
       </c>
     </row>
@@ -2447,7 +2437,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>960178340.47000003</v>
       </c>
     </row>
@@ -3024,7 +3013,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="28">
-        <f>SUM(E41:E92)</f>
         <v>586538254.21000004</v>
       </c>
     </row>
@@ -3191,7 +3179,6 @@
         <v>39</v>
       </c>
       <c r="E110" s="14">
-        <f>112364003.04+9817631.25</f>
         <v>122181634.29000001</v>
       </c>
     </row>
@@ -3200,7 +3187,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>142924542.97</v>
       </c>
     </row>
@@ -3212,7 +3198,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="35">
-        <f>SUM(E93,E111)</f>
         <v>729462797.18000007</v>
       </c>
     </row>
